--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,51 +534,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.291812</v>
+        <v>0.5347833333333334</v>
       </c>
       <c r="H2">
-        <v>0.875436</v>
+        <v>1.60435</v>
       </c>
       <c r="I2">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="J2">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.49702</v>
+        <v>0.04819200000000001</v>
       </c>
       <c r="N2">
-        <v>4.49106</v>
+        <v>0.144576</v>
       </c>
       <c r="O2">
-        <v>0.968812046502357</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.968812046502357</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.43684840024</v>
+        <v>0.0257722784</v>
       </c>
       <c r="R2">
-        <v>3.93163560216</v>
+        <v>0.2319505056000001</v>
       </c>
       <c r="S2">
-        <v>0.1142673335089969</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="T2">
-        <v>0.1142673335089969</v>
+        <v>0.196822066153855</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.291812</v>
+        <v>0.514066</v>
       </c>
       <c r="H3">
-        <v>0.875436</v>
+        <v>1.542198</v>
       </c>
       <c r="I3">
-        <v>0.1179458223311005</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="J3">
-        <v>0.1179458223311005</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.144576</v>
       </c>
       <c r="O3">
-        <v>0.03118795349764305</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.03118795349764305</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.014063003904</v>
+        <v>0.02477386867200001</v>
       </c>
       <c r="R3">
-        <v>0.126567035136</v>
+        <v>0.222964818048</v>
       </c>
       <c r="S3">
-        <v>0.003678488822103631</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="T3">
-        <v>0.003678488822103631</v>
+        <v>0.1891972429821067</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,241 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.514066</v>
+        <v>1.668241</v>
       </c>
       <c r="H4">
-        <v>1.542198</v>
+        <v>5.004723</v>
       </c>
       <c r="I4">
-        <v>0.2077773947009016</v>
+        <v>0.6139806908640383</v>
       </c>
       <c r="J4">
-        <v>0.2077773947009016</v>
+        <v>0.6139806908640382</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.49702</v>
+        <v>0.04819200000000001</v>
       </c>
       <c r="N4">
-        <v>4.49106</v>
+        <v>0.144576</v>
       </c>
       <c r="O4">
-        <v>0.968812046502357</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.968812046502357</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.76956708332</v>
+        <v>0.08039587027200001</v>
       </c>
       <c r="R4">
-        <v>6.92610374988</v>
+        <v>0.7235628324480001</v>
       </c>
       <c r="S4">
-        <v>0.2012972429771085</v>
+        <v>0.6139806908640383</v>
       </c>
       <c r="T4">
-        <v>0.2012972429771085</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.514066</v>
-      </c>
-      <c r="H5">
-        <v>1.542198</v>
-      </c>
-      <c r="I5">
-        <v>0.2077773947009016</v>
-      </c>
-      <c r="J5">
-        <v>0.2077773947009016</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.04819200000000001</v>
-      </c>
-      <c r="N5">
-        <v>0.144576</v>
-      </c>
-      <c r="O5">
-        <v>0.03118795349764305</v>
-      </c>
-      <c r="P5">
-        <v>0.03118795349764305</v>
-      </c>
-      <c r="Q5">
-        <v>0.02477386867200001</v>
-      </c>
-      <c r="R5">
-        <v>0.222964818048</v>
-      </c>
-      <c r="S5">
-        <v>0.006480151723793144</v>
-      </c>
-      <c r="T5">
-        <v>0.006480151723793144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.668241</v>
-      </c>
-      <c r="H6">
-        <v>5.004723</v>
-      </c>
-      <c r="I6">
-        <v>0.674276782967998</v>
-      </c>
-      <c r="J6">
-        <v>0.674276782967998</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>1.49702</v>
-      </c>
-      <c r="N6">
-        <v>4.49106</v>
-      </c>
-      <c r="O6">
-        <v>0.968812046502357</v>
-      </c>
-      <c r="P6">
-        <v>0.968812046502357</v>
-      </c>
-      <c r="Q6">
-        <v>2.49739014182</v>
-      </c>
-      <c r="R6">
-        <v>22.47651127638</v>
-      </c>
-      <c r="S6">
-        <v>0.6532474700162517</v>
-      </c>
-      <c r="T6">
-        <v>0.6532474700162517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.668241</v>
-      </c>
-      <c r="H7">
-        <v>5.004723</v>
-      </c>
-      <c r="I7">
-        <v>0.674276782967998</v>
-      </c>
-      <c r="J7">
-        <v>0.674276782967998</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.04819200000000001</v>
-      </c>
-      <c r="N7">
-        <v>0.144576</v>
-      </c>
-      <c r="O7">
-        <v>0.03118795349764305</v>
-      </c>
-      <c r="P7">
-        <v>0.03118795349764305</v>
-      </c>
-      <c r="Q7">
-        <v>0.08039587027200001</v>
-      </c>
-      <c r="R7">
-        <v>0.7235628324480001</v>
-      </c>
-      <c r="S7">
-        <v>0.02102931295174627</v>
-      </c>
-      <c r="T7">
-        <v>0.02102931295174627</v>
+        <v>0.6139806908640382</v>
       </c>
     </row>
   </sheetData>
